--- a/Documentação/Horas Trabalhadas.xlsx
+++ b/Documentação/Horas Trabalhadas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Quantidade de horas trabalhadas no Projeto</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Criação de entidades, associações, testes banco h2, seed</t>
+  </si>
+  <si>
+    <t>Testes e alterações no banco</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,9 +494,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="4">
+        <v>44223</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>

--- a/Documentação/Horas Trabalhadas.xlsx
+++ b/Documentação/Horas Trabalhadas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Quantidade de horas trabalhadas no Projeto</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Testes e alterações no banco</t>
+  </si>
+  <si>
+    <t>Criando Repositores, Services, DTO, Controllers</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B6" sqref="B6:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,24 +508,48 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="4">
+        <v>44224</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="4">
+        <v>44225</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="4">
+        <v>44229</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>

--- a/Documentação/Horas Trabalhadas.xlsx
+++ b/Documentação/Horas Trabalhadas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Quantidade de horas trabalhadas no Projeto</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Criando Repositores, Services, DTO, Controllers</t>
+  </si>
+  <si>
+    <t>Procurando solução para assossiar Produtos com Grupos</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,16 +548,22 @@
         <v>44229</v>
       </c>
       <c r="B13" s="5">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="4">
+        <v>44230</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>

--- a/Documentação/Horas Trabalhadas.xlsx
+++ b/Documentação/Horas Trabalhadas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Quantidade de horas trabalhadas no Projeto</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Procurando solução para assossiar Produtos com Grupos</t>
+  </si>
+  <si>
+    <t>Procurado e encontrado solução p/associar Produto c/Grupo</t>
+  </si>
+  <si>
+    <t>Procurando solução para assossiar Pedidos com Clientes</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,19 +572,37 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="4">
+        <v>44231</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="4">
+        <v>44235</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="4">
+        <v>44236</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>

--- a/Documentação/Horas Trabalhadas.xlsx
+++ b/Documentação/Horas Trabalhadas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Quantidade de horas trabalhadas no Projeto</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Procurando solução para assossiar Pedidos com Clientes</t>
+  </si>
+  <si>
+    <t>Conclusão e implantação do backend no Heroku</t>
+  </si>
+  <si>
+    <t>Criação do projeto Front-end-web</t>
   </si>
 </sst>
 </file>
@@ -437,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,19 +611,37 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="4">
+        <v>44237</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="4">
+        <v>44266</v>
+      </c>
+      <c r="B19" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="4">
+        <v>44267</v>
+      </c>
+      <c r="B20" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
